--- a/Hometown Scenario.xlsx
+++ b/Hometown Scenario.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CBT\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="9735" activeTab="1"/>
   </bookViews>
@@ -16,47 +11,14 @@
     <sheet name="Integration" sheetId="3" r:id="rId2"/>
     <sheet name="End to end " sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>CBT</author>
-  </authors>
-  <commentList>
-    <comment ref="M1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>CBT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -982,9 +944,6 @@
     <t>BRADLEY HALF LEATHER TWO SEATER SOFA Should be purchased Sucessfully</t>
   </si>
   <si>
-    <t>Signup</t>
-  </si>
-  <si>
     <t xml:space="preserve">Signup via hometown then login the via hometown application </t>
   </si>
   <si>
@@ -1150,12 +1109,15 @@
   <si>
     <t>Home Décor item is sorted based on Discount</t>
   </si>
+  <si>
+    <t>Signup/edit by raghu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1185,19 +1147,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1544,21 +1493,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
@@ -1569,7 +1518,7 @@
     <col min="7" max="13" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1607,7 +1556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="90">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1643,7 +1592,7 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="105">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1679,7 +1628,7 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="105">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1715,7 +1664,7 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="75">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1751,7 +1700,7 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="90">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1787,7 +1736,7 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="90">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1823,7 +1772,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="90">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1859,7 +1808,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="75">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1895,7 +1844,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="75">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1931,7 +1880,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="75">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1967,7 +1916,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="90">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2003,7 +1952,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="90">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2039,7 +1988,7 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="75">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2075,7 +2024,7 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="75">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2111,7 +2060,7 @@
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="75">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2147,7 +2096,7 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="75">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2183,7 +2132,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="75">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2219,7 +2168,7 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="75">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2255,7 +2204,7 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="90">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2291,7 +2240,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="75">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2334,14 +2283,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
@@ -2352,7 +2301,7 @@
     <col min="13" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="30">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2399,12 +2348,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="165">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -2416,13 +2365,13 @@
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -2431,7 +2380,7 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="135">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2445,16 +2394,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -2463,7 +2412,7 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="150">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2477,16 +2426,16 @@
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -2495,12 +2444,12 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="180" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="180">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>46</v>
@@ -2509,16 +2458,16 @@
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>241</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -2527,7 +2476,7 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="180" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="180">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2541,16 +2490,16 @@
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -2559,7 +2508,7 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="120">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2573,16 +2522,16 @@
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>247</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -2591,7 +2540,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="105">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2605,16 +2554,16 @@
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>252</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -2623,7 +2572,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="135">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2637,16 +2586,16 @@
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>256</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -2655,12 +2604,12 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="135">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>46</v>
@@ -2669,16 +2618,16 @@
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -2687,7 +2636,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="135">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2701,16 +2650,16 @@
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>263</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -2719,7 +2668,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2733,7 +2682,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2747,7 +2696,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2761,7 +2710,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2775,7 +2724,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2789,7 +2738,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2803,7 +2752,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2817,7 +2766,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2831,7 +2780,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2845,7 +2794,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2859,7 +2808,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2873,7 +2822,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2887,7 +2836,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2901,7 +2850,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2915,7 +2864,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2929,7 +2878,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2943,7 +2892,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2957,7 +2906,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2974,19 +2923,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
@@ -3002,7 +2950,7 @@
     <col min="12" max="12" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="30">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3049,7 +2997,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="330" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="330">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3081,7 +3029,7 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="285" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="285">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3113,7 +3061,7 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="345" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="345">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3145,7 +3093,7 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="345" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="345">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3177,7 +3125,7 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="300" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="300">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3209,7 +3157,7 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="409.5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3241,7 +3189,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="409.5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3273,7 +3221,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="330" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="330">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3305,7 +3253,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="409.5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3337,7 +3285,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="409.5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3369,7 +3317,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:15" ht="240" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="240">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3401,7 +3349,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:15" ht="360" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="360">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3433,7 +3381,7 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="315" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="315">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3465,7 +3413,7 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="390" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="390">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3497,7 +3445,7 @@
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="405" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="405">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3529,7 +3477,7 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="360" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="360">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3561,7 +3509,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="405" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="405">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3593,7 +3541,7 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="345" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="345">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3625,7 +3573,7 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="409.5" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3657,7 +3605,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="409.5">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3689,7 +3637,7 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="409.5">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3719,7 +3667,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="409.5">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3751,7 +3699,7 @@
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" ht="360" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="360">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3783,7 +3731,7 @@
       </c>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="405" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="405">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3811,7 +3759,7 @@
       </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="301.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="301.5" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3839,7 +3787,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="44.25" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3869,7 +3817,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3885,7 +3833,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3899,7 +3847,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3913,7 +3861,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3927,7 +3875,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3941,7 +3889,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3955,7 +3903,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3969,7 +3917,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>

--- a/Hometown Scenario.xlsx
+++ b/Hometown Scenario.xlsx
@@ -12,7 +12,6 @@
     <sheet name="End to end " sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="266">
   <si>
     <t>Sl no</t>
   </si>
@@ -1111,6 +1110,12 @@
   </si>
   <si>
     <t>Signup/edit by raghu</t>
+  </si>
+  <si>
+    <t>Search/edit again</t>
+  </si>
+  <si>
+    <t>Search/edit by edit</t>
   </si>
 </sst>
 </file>
@@ -1493,7 +1498,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2286,8 +2291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2385,7 +2390,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>264</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>46</v>
@@ -2417,7 +2422,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>265</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>46</v>

--- a/Hometown Scenario.xlsx
+++ b/Hometown Scenario.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit\Desktop\git\test\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C174A90-17D9-4A2A-B003-0872EF04945E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Functional" sheetId="1" r:id="rId1"/>
@@ -12,8 +18,8 @@
     <sheet name="End to end " sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1109,20 +1115,20 @@
     <t>Home Décor item is sorted based on Discount</t>
   </si>
   <si>
-    <t>Signup/edit by raghu</t>
-  </si>
-  <si>
     <t>Search/edit again</t>
   </si>
   <si>
     <t>Search/edit by edit</t>
+  </si>
+  <si>
+    <t>Signup/edit by Amith</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1498,32 +1504,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
-    <col min="7" max="13" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" customWidth="1"/>
+    <col min="7" max="13" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1561,7 +1567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="90">
+    <row r="2" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1597,7 +1603,7 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="105">
+    <row r="3" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1633,7 +1639,7 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="105">
+    <row r="4" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1669,7 +1675,7 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="75">
+    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1705,7 +1711,7 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="90">
+    <row r="6" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1741,7 +1747,7 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="90">
+    <row r="7" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1777,7 +1783,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="90">
+    <row r="8" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1813,7 +1819,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="75">
+    <row r="9" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1849,7 +1855,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="75">
+    <row r="10" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1885,7 +1891,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="75">
+    <row r="11" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1921,7 +1927,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="90">
+    <row r="12" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1957,7 +1963,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="90">
+    <row r="13" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1993,7 +1999,7 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" ht="75">
+    <row r="14" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2029,7 +2035,7 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="75">
+    <row r="15" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2065,7 +2071,7 @@
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" ht="75">
+    <row r="16" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2101,7 +2107,7 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="75">
+    <row r="17" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2137,7 +2143,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="75">
+    <row r="18" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2173,7 +2179,7 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="75">
+    <row r="19" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2209,7 +2215,7 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="90">
+    <row r="20" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2245,7 +2251,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="75">
+    <row r="21" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2288,25 +2294,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
     <col min="13" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30">
+    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2353,12 +2359,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="165">
+    <row r="2" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -2385,12 +2391,12 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="135">
+    <row r="3" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>46</v>
@@ -2417,12 +2423,12 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="150">
+    <row r="4" spans="1:15" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>46</v>
@@ -2449,7 +2455,7 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="180">
+    <row r="5" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2481,7 +2487,7 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="180">
+    <row r="6" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2513,7 +2519,7 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="120">
+    <row r="7" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2545,7 +2551,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="105">
+    <row r="8" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2577,7 +2583,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="135">
+    <row r="9" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2609,7 +2615,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="135">
+    <row r="10" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2641,7 +2647,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="135">
+    <row r="11" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2673,7 +2679,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2687,7 +2693,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2701,7 +2707,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2715,7 +2721,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2729,7 +2735,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2743,7 +2749,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2757,7 +2763,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2771,7 +2777,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2785,7 +2791,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2799,7 +2805,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2813,7 +2819,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2827,7 +2833,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2841,7 +2847,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2855,7 +2861,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2869,7 +2875,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2883,7 +2889,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2897,7 +2903,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2911,7 +2917,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2932,30 +2938,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="53.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="53.5546875" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30">
+    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3002,7 +3008,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="330">
+    <row r="2" spans="1:15" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3034,7 +3040,7 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="285">
+    <row r="3" spans="1:15" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3066,7 +3072,7 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="345">
+    <row r="4" spans="1:15" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3098,7 +3104,7 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="345">
+    <row r="5" spans="1:15" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3130,7 +3136,7 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="300">
+    <row r="6" spans="1:15" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3162,7 +3168,7 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="409.5">
+    <row r="7" spans="1:15" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3194,7 +3200,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="409.5">
+    <row r="8" spans="1:15" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3226,7 +3232,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="330">
+    <row r="9" spans="1:15" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3258,7 +3264,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="409.5">
+    <row r="10" spans="1:15" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3290,7 +3296,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="409.5">
+    <row r="11" spans="1:15" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3322,7 +3328,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:15" ht="240">
+    <row r="12" spans="1:15" ht="216" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3354,7 +3360,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:15" ht="360">
+    <row r="13" spans="1:15" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3386,7 +3392,7 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="315">
+    <row r="14" spans="1:15" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3418,7 +3424,7 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="390">
+    <row r="15" spans="1:15" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3450,7 +3456,7 @@
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="405">
+    <row r="16" spans="1:15" ht="360" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3482,7 +3488,7 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="360">
+    <row r="17" spans="1:12" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3514,7 +3520,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="405">
+    <row r="18" spans="1:12" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3546,7 +3552,7 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="345">
+    <row r="19" spans="1:12" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3578,7 +3584,7 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="409.5" customHeight="1">
+    <row r="20" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3610,7 +3616,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="409.5">
+    <row r="21" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3642,7 +3648,7 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="409.5">
+    <row r="22" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3672,7 +3678,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="409.5">
+    <row r="23" spans="1:12" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3704,7 +3710,7 @@
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" ht="360">
+    <row r="24" spans="1:12" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3736,7 +3742,7 @@
       </c>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="405">
+    <row r="25" spans="1:12" ht="360" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3764,7 +3770,7 @@
       </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="301.5" customHeight="1">
+    <row r="26" spans="1:12" ht="301.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3792,7 +3798,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="44.25" customHeight="1">
+    <row r="27" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3822,7 +3828,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3838,7 +3844,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3852,7 +3858,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3866,7 +3872,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3880,7 +3886,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3894,7 +3900,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3908,7 +3914,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3922,7 +3928,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
